--- a/gocardless/known_faces.xlsx
+++ b/gocardless/known_faces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,148 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>akmbole2002@gmail.com_8586810062_Aditi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[-0.06823949  0.01249369 -0.00599367 -0.05606411 -0.10727771 -0.04880576
+ -0.01053916 -0.06957188  0.16684942 -0.15328266  0.22448379 -0.00605636
+ -0.15944308 -0.04700275  0.07257333  0.12861012 -0.14187896 -0.1621187
+ -0.0662665  -0.08008876  0.0531917   0.08820632  0.07475321  0.11674147
+ -0.20830801 -0.35318744 -0.04444415 -0.11112835 -0.00744182 -0.05040635
+  0.04627079  0.19553751 -0.17787293  0.01354739  0.08806212  0.12181056
+ -0.00448059 -0.07304312  0.24420464 -0.00894063 -0.27860883 -0.09856869
+  0.0992084   0.26251933  0.17211686 -0.11219691 -0.02570751 -0.02537312
+  0.1092778  -0.21600851  0.05294245  0.14395171  0.02802621  0.03059795
+  0.11298537 -0.04252141  0.04390322  0.11085644 -0.23261282 -0.04659317
+  0.04089726 -0.10778144 -0.05373368 -0.12191996  0.1939235   0.09138554
+ -0.09716371 -0.11259854  0.17104664 -0.14940739 -0.07311635  0.13209225
+ -0.16195591 -0.21168381 -0.23317786 -0.0096327   0.39949453  0.14981058
+ -0.12628421  0.13089736  0.02634136 -0.08578307  0.08430288  0.14698175
+  0.02146315  0.04567558 -0.01099702  0.15696949  0.17388359  0.00800002
+ -0.04344313  0.24542952 -0.02834919 -0.01533387  0.10217117  0.03082698
+ -0.03518577 -0.01149876 -0.19826019  0.00977294  0.01562467 -0.04086744
+  0.00091819  0.09488353 -0.14111854  0.10051385  0.01390043 -0.03824075
+  0.03549199  0.03504889 -0.09544393 -0.10560184  0.07557249 -0.25245655
+  0.11842497  0.0584619   0.00530344  0.16776706 -0.00061775  0.08524705
+  0.00851848 -0.08953841 -0.19671848 -0.02632943  0.11603313 -0.00532047
+  0.05845584 -0.01432334]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>akmbole2002@gmail.com_8586810062_Aditi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[-0.06823949  0.01249369 -0.00599367 -0.05606411 -0.10727771 -0.04880576
+ -0.01053916 -0.06957188  0.16684942 -0.15328266  0.22448379 -0.00605636
+ -0.15944308 -0.04700275  0.07257333  0.12861012 -0.14187896 -0.1621187
+ -0.0662665  -0.08008876  0.0531917   0.08820632  0.07475321  0.11674147
+ -0.20830801 -0.35318744 -0.04444415 -0.11112835 -0.00744182 -0.05040635
+  0.04627079  0.19553751 -0.17787293  0.01354739  0.08806212  0.12181056
+ -0.00448059 -0.07304312  0.24420464 -0.00894063 -0.27860883 -0.09856869
+  0.0992084   0.26251933  0.17211686 -0.11219691 -0.02570751 -0.02537312
+  0.1092778  -0.21600851  0.05294245  0.14395171  0.02802621  0.03059795
+  0.11298537 -0.04252141  0.04390322  0.11085644 -0.23261282 -0.04659317
+  0.04089726 -0.10778144 -0.05373368 -0.12191996  0.1939235   0.09138554
+ -0.09716371 -0.11259854  0.17104664 -0.14940739 -0.07311635  0.13209225
+ -0.16195591 -0.21168381 -0.23317786 -0.0096327   0.39949453  0.14981058
+ -0.12628421  0.13089736  0.02634136 -0.08578307  0.08430288  0.14698175
+  0.02146315  0.04567558 -0.01099702  0.15696949  0.17388359  0.00800002
+ -0.04344313  0.24542952 -0.02834919 -0.01533387  0.10217117  0.03082698
+ -0.03518577 -0.01149876 -0.19826019  0.00977294  0.01562467 -0.04086744
+  0.00091819  0.09488353 -0.14111854  0.10051385  0.01390043 -0.03824075
+  0.03549199  0.03504889 -0.09544393 -0.10560184  0.07557249 -0.25245655
+  0.11842497  0.0584619   0.00530344  0.16776706 -0.00061775  0.08524705
+  0.00851848 -0.08953841 -0.19671848 -0.02632943  0.11603313 -0.00532047
+  0.05845584 -0.01432334]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>molshreesharma21@gmail.com_6386939889_Molshree</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[-1.16294637e-01  4.65656221e-02  6.15862273e-02  2.02336838e-03
+ -1.29059747e-01 -6.04531877e-02 -7.96424747e-02 -1.28680497e-01
+  2.16946453e-01 -1.60817131e-01  1.29091799e-01 -2.99648736e-02
+ -1.51124671e-01  4.00918499e-02 -4.48503979e-02  1.85725331e-01
+ -9.66782495e-02 -1.70459718e-01  2.87013128e-04 -1.77689064e-02
+  3.40329972e-03 -1.87468529e-02  4.39631045e-02  8.60677958e-02
+ -1.32445723e-01 -3.24365199e-01 -7.23410845e-02 -7.17871338e-02
+ -2.39670649e-02 -4.91314642e-02 -6.90540373e-02  2.44563352e-02
+ -2.18525276e-01 -5.14752418e-02  1.17526893e-02  1.60823897e-01
+ -5.17724790e-02 -6.19224757e-02  1.91820711e-01 -2.49742568e-02
+ -2.79109180e-01 -8.73930007e-03  7.16965795e-02  2.16038436e-01
+  1.52031735e-01 -7.04350695e-03 -1.44647360e-02 -1.46600708e-01
+  9.25805792e-02 -2.52364367e-01  7.40756318e-02  5.84079437e-02
+  8.27841610e-02  5.16837463e-02  4.32666093e-02 -9.59017873e-02
+  2.64811106e-02  1.44002527e-01 -2.17897743e-01  6.10261410e-02
+  7.89176300e-02 -1.06847975e-02  2.66754776e-02 -4.27959897e-02
+  3.17647785e-01  2.04039603e-01 -1.04326852e-01 -6.21820390e-02
+  1.35006309e-01 -1.96119219e-01 -4.04507406e-02  4.62013185e-02
+ -1.67829394e-02 -2.62434632e-01 -2.77941078e-01  1.20073026e-02
+  4.08193499e-01  1.62560806e-01 -1.90828711e-01  4.02999260e-02
+ -1.75107047e-02 -4.15510945e-02  1.38835400e-01  1.32181749e-01
+ -3.44197378e-02  5.14774546e-02 -3.69554982e-02  1.89749599e-02
+  2.86291242e-01 -1.15850102e-02 -2.57104356e-02  2.11562350e-01
+  2.15326175e-02  4.66610678e-02  4.68664579e-02  6.89833686e-02
+ -7.54603595e-02 -9.07660834e-03 -2.46623263e-01 -3.32469158e-02
+ -3.34086418e-02  1.38232112e-02  7.45686190e-03  7.54753277e-02
+ -1.59147263e-01  8.96066651e-02  2.51288973e-02 -9.56725031e-02
+  5.54694515e-03  7.60501325e-02 -1.29401699e-01 -1.17953680e-01
+  1.22842550e-01 -2.35883176e-01  2.06803069e-01  1.06771819e-01
+  2.52666082e-02  1.89328611e-01  8.04533660e-02  7.02382997e-02
+  5.26703931e-02 -5.07813692e-02 -9.01906863e-02  5.95498772e-04
+  1.25910372e-01 -4.75681983e-02  1.36272848e-01  5.74469827e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>akmbole2002@gmail.com_8586810062_Aditi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[-0.06823949  0.01249369 -0.00599367 -0.05606411 -0.10727771 -0.04880576
+ -0.01053916 -0.06957188  0.16684942 -0.15328266  0.22448379 -0.00605636
+ -0.15944308 -0.04700275  0.07257333  0.12861012 -0.14187896 -0.1621187
+ -0.0662665  -0.08008876  0.0531917   0.08820632  0.07475321  0.11674147
+ -0.20830801 -0.35318744 -0.04444415 -0.11112835 -0.00744182 -0.05040635
+  0.04627079  0.19553751 -0.17787293  0.01354739  0.08806212  0.12181056
+ -0.00448059 -0.07304312  0.24420464 -0.00894063 -0.27860883 -0.09856869
+  0.0992084   0.26251933  0.17211686 -0.11219691 -0.02570751 -0.02537312
+  0.1092778  -0.21600851  0.05294245  0.14395171  0.02802621  0.03059795
+  0.11298537 -0.04252141  0.04390322  0.11085644 -0.23261282 -0.04659317
+  0.04089726 -0.10778144 -0.05373368 -0.12191996  0.1939235   0.09138554
+ -0.09716371 -0.11259854  0.17104664 -0.14940739 -0.07311635  0.13209225
+ -0.16195591 -0.21168381 -0.23317786 -0.0096327   0.39949453  0.14981058
+ -0.12628421  0.13089736  0.02634136 -0.08578307  0.08430288  0.14698175
+  0.02146315  0.04567558 -0.01099702  0.15696949  0.17388359  0.00800002
+ -0.04344313  0.24542952 -0.02834919 -0.01533387  0.10217117  0.03082698
+ -0.03518577 -0.01149876 -0.19826019  0.00977294  0.01562467 -0.04086744
+  0.00091819  0.09488353 -0.14111854  0.10051385  0.01390043 -0.03824075
+  0.03549199  0.03504889 -0.09544393 -0.10560184  0.07557249 -0.25245655
+  0.11842497  0.0584619   0.00530344  0.16776706 -0.00061775  0.08524705
+  0.00851848 -0.08953841 -0.19671848 -0.02632943  0.11603313 -0.00532047
+  0.05845584 -0.01432334]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
